--- a/exercicios externos/BRINCANDO DE TENTAR FAZER SOLO/1/ESCOPO DA BRINCADEIRA KKK.xlsx
+++ b/exercicios externos/BRINCANDO DE TENTAR FAZER SOLO/1/ESCOPO DA BRINCADEIRA KKK.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,13 +29,103 @@
   </si>
   <si>
     <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ela estiver online: E ai nega, como está? Como foi a semana? Tudo certo? Saudades de você. :)                                                                                                                </t>
+    </r>
+    <r>
       <rPr>
         <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No PROMPT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SE NÃO/OU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Depois eu tento falar contigo, acho que você ta ocupada. Beijo pra ti pequeno grande colosso! :D                                                                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No PROMPT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="28"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NA DIV RES:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "A gostosa ta online, bora aproveitar! 😎💕";</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>NA DIV RES:</t>
     </r>
     <r>
@@ -46,95 +136,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "A gostosa ta online, bora aproveitar! 😎💕";</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NA DIV RES:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>"Não foi dessa vez jovem Jedi, a gostosa ainda continua desaparecida, foi triste.😔";</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="48"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ela estiver online: E ai nega, como está? Como foi a semana? Tudo certo? Saudades de você. :)                                                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No PROMPT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SE NÃO/OU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Depois eu tento falar contigo, acho que você ta ocupada. Beijo pra ti pequeno grande colosso! :D                                                                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="28"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No PROMPT</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,60 +154,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="48"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -208,26 +207,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF93cddd"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF21FF85"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF21ff85"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFd99694"/>
       </patternFill>
     </fill>
   </fills>
@@ -241,105 +236,121 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -347,70 +358,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF21FF85"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -443,79 +451,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,54 +544,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -593,7 +600,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -602,7 +609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -611,7 +618,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -619,10 +626,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -651,7 +658,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -664,13 +671,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -689,52 +695,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="12" width="79.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="178.29071428571427" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="51">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33.75">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5" customFormat="1" s="5">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="134.25" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="123.75" customFormat="1" s="5">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="40.5">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -743,6 +750,5 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>